--- a/tp1_fisica/estudio_aceleraciones_m71_papel.xlsx
+++ b/tp1_fisica/estudio_aceleraciones_m71_papel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>m</t>
   </si>
@@ -22,9 +22,6 @@
     <t>t, arduino</t>
   </si>
   <si>
-    <t>1250,1214.00</t>
-  </si>
-  <si>
     <t>1500,1214.00</t>
   </si>
   <si>
@@ -34,19 +31,25 @@
     <t>2000,2176.00</t>
   </si>
   <si>
-    <t>2250,3446.00</t>
-  </si>
-  <si>
     <t>2500,3430.00</t>
   </si>
   <si>
-    <t>2750,3625.00</t>
-  </si>
-  <si>
-    <t>3000,3675.00</t>
-  </si>
-  <si>
-    <t>750,1159.00</t>
+    <t>1250,1288.00</t>
+  </si>
+  <si>
+    <t>1500,1340.00</t>
+  </si>
+  <si>
+    <t>1750,1740.00</t>
+  </si>
+  <si>
+    <t>2000,2645.00</t>
+  </si>
+  <si>
+    <t>2500,3642.00</t>
+  </si>
+  <si>
+    <t>2750,3837.00</t>
   </si>
   <si>
     <t>1000,1158.00</t>
@@ -61,12 +64,6 @@
     <t>1750,2900.00</t>
   </si>
   <si>
-    <t>2000,2877.00</t>
-  </si>
-  <si>
-    <t>2250,3090.00</t>
-  </si>
-  <si>
     <t>750,1214.00</t>
   </si>
   <si>
@@ -85,9 +82,6 @@
     <t>2000,3019.00</t>
   </si>
   <si>
-    <t>500,1177.00</t>
-  </si>
-  <si>
     <t>750,1177.00</t>
   </si>
   <si>
@@ -122,9 +116,6 @@
   </si>
   <si>
     <t>2250,2941.00</t>
-  </si>
-  <si>
-    <t>2500,2941.00</t>
   </si>
   <si>
     <t>1000,310.00</t>
@@ -164,12 +155,24 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -184,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -195,6 +198,12 @@
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -457,8 +466,12 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="4">
+        <v>71.6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>133.1</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
@@ -485,12 +498,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
-        <v>71.6</v>
-      </c>
-      <c r="B10" s="3">
-        <v>155.25</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
@@ -503,8 +512,12 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="2">
+        <v>71.6</v>
+      </c>
+      <c r="B12" s="3">
+        <v>155.25</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
@@ -531,20 +544,20 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="5">
+        <v>71.6</v>
+      </c>
+      <c r="B16" s="3">
+        <f>22.07+22.15+22.29 + 111.03</f>
+        <v>177.54</v>
+      </c>
       <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2">
-        <v>71.6</v>
-      </c>
-      <c r="B17" s="3">
-        <f>22.07+22.15+22.29 + 111.03</f>
-        <v>177.54</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
@@ -578,20 +591,20 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="A22" s="5">
+        <v>71.6</v>
+      </c>
+      <c r="B22" s="3">
+        <f>22.29+ 22.07+ 22.15+ 5.36 + 111.03</f>
+        <v>182.9</v>
+      </c>
       <c r="C22" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2">
-        <v>71.6</v>
-      </c>
-      <c r="B23" s="3">
-        <f>22.29+ 22.07+ 22.15+ 5.36 + 111.03</f>
-        <v>182.9</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
         <v>24</v>
       </c>
@@ -618,8 +631,13 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="A27" s="5">
+        <v>71.6</v>
+      </c>
+      <c r="B27" s="3">
+        <f> 22.29+ 22.07+ 22.15+ 5.36+ 72.184 + 111.03</f>
+        <v>255.084</v>
+      </c>
       <c r="C27" s="1" t="s">
         <v>28</v>
       </c>
@@ -632,13 +650,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2">
-        <v>71.6</v>
-      </c>
-      <c r="B29" s="3">
-        <f> 22.29+ 22.07+ 22.15+ 5.36+ 72.184 + 111.03</f>
-        <v>255.084</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
         <v>30</v>
       </c>
@@ -672,8 +685,13 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
+      <c r="A34" s="5">
+        <v>71.6</v>
+      </c>
+      <c r="B34" s="3">
+        <f> 22.29+ 22.07+ 22.15+ 5.36+ 134.6 + 111.03</f>
+        <v>317.5</v>
+      </c>
       <c r="C34" s="1" t="s">
         <v>35</v>
       </c>
@@ -693,13 +711,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2">
-        <v>71.6</v>
-      </c>
-      <c r="B37" s="3">
-        <f> 22.29+ 22.07+ 22.15+ 5.36+ 134.6 + 111.03</f>
-        <v>317.5</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
         <v>38</v>
       </c>
@@ -728,23 +741,17 @@
     <row r="41">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="C41" s="1"/>
     </row>
     <row r="42">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="C42" s="1"/>
     </row>
     <row r="43">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="C43" s="1"/>
     </row>
     <row r="44">
       <c r="A44" s="1"/>
@@ -757,8 +764,8 @@
       <c r="C45" s="1"/>
     </row>
     <row r="46">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
       <c r="C46" s="1"/>
     </row>
     <row r="47">
@@ -772,8 +779,8 @@
       <c r="C48" s="1"/>
     </row>
     <row r="49">
-      <c r="A49" s="2"/>
-      <c r="B49" s="3"/>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
     <row r="50">
@@ -791,21 +798,6 @@
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
